--- a/src/main/java/utility/cardNumber3.xlsx
+++ b/src/main/java/utility/cardNumber3.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62AE79E5-2D3E-4608-9036-05C421E58289}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="20385" yWindow="-10920" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -13,10 +14,15 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
     <sheet name="backup" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1130,7 +1136,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1471,14 +1477,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,7 +1599,7 @@
         <v>case1</v>
       </c>
       <c r="B2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
@@ -1674,7 +1680,7 @@
         <v>case2</v>
       </c>
       <c r="B3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -1755,7 +1761,7 @@
         <v>case3</v>
       </c>
       <c r="B4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
@@ -1836,7 +1842,7 @@
         <v>case4</v>
       </c>
       <c r="B5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>19</v>
@@ -1917,7 +1923,7 @@
         <v>case5</v>
       </c>
       <c r="B6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>23</v>
@@ -1998,7 +2004,7 @@
         <v>case6</v>
       </c>
       <c r="B7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>27</v>
@@ -2079,7 +2085,7 @@
         <v>case7</v>
       </c>
       <c r="B8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>30</v>
@@ -2160,7 +2166,7 @@
         <v>case8</v>
       </c>
       <c r="B9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>33</v>
@@ -2241,7 +2247,7 @@
         <v>case9</v>
       </c>
       <c r="B10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>36</v>
@@ -4510,7 +4516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4716,7 +4722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5590,7 +5596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -6354,7 +6360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G123"/>
   <sheetViews>
     <sheetView topLeftCell="A64" workbookViewId="0">
